--- a/backend_tests/z_input_files/v2/16_fao_fbs_test.xlsx
+++ b/backend_tests/z_input_files/v2/16_fao_fbs_test.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="DatasetQry FBS" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="DatasetQry FBS 2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="306">
   <si>
     <t xml:space="preserve">InputDataset</t>
   </si>
@@ -67,7 +68,7 @@
     <t xml:space="preserve">Sum</t>
   </si>
   <si>
-    <t xml:space="preserve">ds1</t>
+    <t xml:space="preserve">fbs1</t>
   </si>
   <si>
     <t xml:space="preserve">2511</t>
@@ -131,6 +132,813 @@
   </si>
   <si>
     <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Population - Both sexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbs2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetal Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountAv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereals - Excluding Beer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic supply quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millet and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereals, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starchy Roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other uses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potatoes and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar Crops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar cane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar beet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar &amp; Sweeteners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar (Raw Equivalent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweeteners, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulses, Other and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treenuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuts and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oilcrops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunflower seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cottonseed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coconuts - Incl Copra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesame seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olives (including preserved)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oilcrops, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetable Oils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soyabean Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groundnut Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunflowerseed Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rape and Mustard Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cottonseed Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palm Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesameseed Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olive Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oilcrops Oil, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomatoes and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetables, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits - Excluding Wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrus, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bananas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apples and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pineapples and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapes and products (excl wine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stimulants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocoa Beans and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea (including mate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spices, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcoholic Beverages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beverages, Alcoholic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bovine Meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutton &amp; Goat Meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poultry Meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offals, Edible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal fats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butter, Ghee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fats, Animals, Raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milk - Excluding Butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish, Seafood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshwater Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infant food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rye and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorghum and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassava and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet potatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roots, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soyabeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groundnuts (Shelled Eq)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rape and Mustardseed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palm kernels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmkernel Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coconut Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maize Germ Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemons, Limes and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapefruit and products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beverages, Fermented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcohol, Non-Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pigmeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish, Body Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish, Liver Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demersal Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelagic Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marine Fish, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crustaceans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cephalopods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molluscs, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquatic Products, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquatic Animals, Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquatic Plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar non-centrifugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricebran Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat, Aquatic Mammals</t>
   </si>
 </sst>
 </file>
@@ -256,7 +1064,7 @@
   <dimension ref="A1:P152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,4 +1251,1470 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P219"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="9.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="0"/>
+      <c r="F78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="0"/>
+      <c r="F82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" s="0"/>
+      <c r="F84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="0"/>
+      <c r="F87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E89" s="0"/>
+      <c r="F89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E90" s="0"/>
+      <c r="F90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>